--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.020121-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gibson.Spring.020121-1.xlsx_with_dialog_acts.xlsx
@@ -515,12 +515,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -555,12 +555,12 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -839,12 +839,12 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -959,12 +959,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1079,12 +1079,12 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1279,12 +1279,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1319,12 +1319,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1519,12 +1519,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1719,12 +1719,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1759,12 +1759,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1879,12 +1879,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1919,12 +1919,12 @@
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2359,12 +2359,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3119,12 +3119,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3279,12 +3279,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3439,12 +3439,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -3683,12 +3683,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4087,12 +4087,12 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4247,12 +4247,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4567,12 +4567,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5047,12 +5047,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5087,12 +5087,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5891,12 +5891,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5931,12 +5931,12 @@
       <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6251,12 +6251,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6851,12 +6851,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7171,12 +7171,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7411,12 +7411,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7775,12 +7775,12 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7815,12 +7815,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8095,12 +8095,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8175,12 +8175,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8295,12 +8295,12 @@
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8455,12 +8455,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8495,12 +8495,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8655,12 +8655,12 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9139,12 +9139,12 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9339,12 +9339,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9539,12 +9539,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9739,12 +9739,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9859,12 +9859,12 @@
       <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9899,12 +9899,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11521,12 +11521,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11559,12 +11559,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11901,12 +11901,12 @@
       <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J287" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11939,12 +11939,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12513,12 +12513,12 @@
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -13197,12 +13197,12 @@
       <c r="H321" t="inlineStr"/>
       <c r="I321" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J321" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13235,12 +13235,12 @@
       <c r="H322" t="inlineStr"/>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13273,12 +13273,12 @@
       <c r="H323" t="inlineStr"/>
       <c r="I323" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13615,12 +13615,12 @@
       <c r="H332" t="inlineStr"/>
       <c r="I332" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14725,12 +14725,12 @@
       <c r="H361" t="inlineStr"/>
       <c r="I361" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -14801,12 +14801,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14877,12 +14877,12 @@
       <c r="H365" t="inlineStr"/>
       <c r="I365" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15033,12 +15033,12 @@
       <c r="H369" t="inlineStr"/>
       <c r="I369" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15265,12 +15265,12 @@
       </c>
       <c r="I375" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J375" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15455,12 +15455,12 @@
       <c r="H380" t="inlineStr"/>
       <c r="I380" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
